--- a/resources/GINF3/Notes_ApresRats.xlsx
+++ b/resources/GINF3/Notes_ApresRats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02197776-D382-4D10-B120-B53F8E67AE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB543E-3B53-44AC-9AC7-DAF2055D642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{335A8C19-2AA3-4ABA-B58B-0EDA2A5E21F3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>CNE</t>
   </si>
@@ -61,64 +61,304 @@
     <t>Note_GINF56</t>
   </si>
   <si>
-    <t>Ginf3_FN1</t>
-  </si>
-  <si>
-    <t>Ginf3_LN1</t>
-  </si>
-  <si>
-    <t>Ginf3_FN2</t>
-  </si>
-  <si>
-    <t>Ginf3_LN2</t>
-  </si>
-  <si>
-    <t>Ginf3_FN3</t>
-  </si>
-  <si>
-    <t>Ginf3_LN3</t>
-  </si>
-  <si>
-    <t>Ginf3_FN4</t>
-  </si>
-  <si>
-    <t>Ginf3_LN4</t>
-  </si>
-  <si>
-    <t>Ginf3_FN5</t>
-  </si>
-  <si>
-    <t>Ginf3_LN5</t>
-  </si>
-  <si>
-    <t>Ginf3_FN6</t>
-  </si>
-  <si>
-    <t>Ginf3_LN6</t>
-  </si>
-  <si>
-    <t>Ginf3_FN7</t>
-  </si>
-  <si>
-    <t>Ginf3_LN7</t>
-  </si>
-  <si>
-    <t>Ginf3_FN8</t>
-  </si>
-  <si>
-    <t>Ginf3_LN8</t>
-  </si>
-  <si>
-    <t>Ginf3_FN9</t>
-  </si>
-  <si>
-    <t>Ginf3_LN9</t>
-  </si>
-  <si>
-    <t>Ginf3_FN10</t>
-  </si>
-  <si>
-    <t>Ginf3_LN10</t>
+    <t>Ariel Woods</t>
+  </si>
+  <si>
+    <t>Jin Patton</t>
+  </si>
+  <si>
+    <t>Xaviera Justice</t>
+  </si>
+  <si>
+    <t>Bradley Arnold</t>
+  </si>
+  <si>
+    <t>Benjamin Blackwell</t>
+  </si>
+  <si>
+    <t>Rae Nixon</t>
+  </si>
+  <si>
+    <t>Mason Raymond</t>
+  </si>
+  <si>
+    <t>Ivan Rasmussen</t>
+  </si>
+  <si>
+    <t>Brendan Gonzalez</t>
+  </si>
+  <si>
+    <t>Debra Ferrell</t>
+  </si>
+  <si>
+    <t>Jessica Huber</t>
+  </si>
+  <si>
+    <t>Chiquita Lara</t>
+  </si>
+  <si>
+    <t>Melvin Snider</t>
+  </si>
+  <si>
+    <t>Keiko Booth</t>
+  </si>
+  <si>
+    <t>Steven Massey</t>
+  </si>
+  <si>
+    <t>Nehru Dickerson</t>
+  </si>
+  <si>
+    <t>Darius Gilmore</t>
+  </si>
+  <si>
+    <t>Todd Shannon</t>
+  </si>
+  <si>
+    <t>Yeo Reed</t>
+  </si>
+  <si>
+    <t>Zelenia Mercado</t>
+  </si>
+  <si>
+    <t>Flavia Knapp</t>
+  </si>
+  <si>
+    <t>Cathleen Wynn</t>
+  </si>
+  <si>
+    <t>Halee Meadows</t>
+  </si>
+  <si>
+    <t>Benedict Massey</t>
+  </si>
+  <si>
+    <t>Yeo Guy</t>
+  </si>
+  <si>
+    <t>Tad Hardin</t>
+  </si>
+  <si>
+    <t>Lester Atkinson</t>
+  </si>
+  <si>
+    <t>Nehru Reed</t>
+  </si>
+  <si>
+    <t>Jaden Cash</t>
+  </si>
+  <si>
+    <t>Quinn Ross</t>
+  </si>
+  <si>
+    <t>Cain Bowers</t>
+  </si>
+  <si>
+    <t>Honorato Sanford</t>
+  </si>
+  <si>
+    <t>Kennan Tucker</t>
+  </si>
+  <si>
+    <t>Boris Merrill</t>
+  </si>
+  <si>
+    <t>Nero Garrison</t>
+  </si>
+  <si>
+    <t>Damon Dalton</t>
+  </si>
+  <si>
+    <t>Madonna Cook</t>
+  </si>
+  <si>
+    <t>Linus Harrell</t>
+  </si>
+  <si>
+    <t>Nehru Hopkins</t>
+  </si>
+  <si>
+    <t>Drew Brady</t>
+  </si>
+  <si>
+    <t>Len Kelley</t>
+  </si>
+  <si>
+    <t>Oscar Macdonald</t>
+  </si>
+  <si>
+    <t>Darryl Richardson</t>
+  </si>
+  <si>
+    <t>Hanae Castaneda</t>
+  </si>
+  <si>
+    <t>Hiram Wolfe</t>
+  </si>
+  <si>
+    <t>Jackson Berger</t>
+  </si>
+  <si>
+    <t>Indigo O'Neill</t>
+  </si>
+  <si>
+    <t>Nero Morrison</t>
+  </si>
+  <si>
+    <t>Cynthia Joseph</t>
+  </si>
+  <si>
+    <t>Wyoming Boyle</t>
+  </si>
+  <si>
+    <t>Magee Hicks</t>
+  </si>
+  <si>
+    <t>Nita Patterson</t>
+  </si>
+  <si>
+    <t>Clio Tate</t>
+  </si>
+  <si>
+    <t>Burke Guerra</t>
+  </si>
+  <si>
+    <t>Bernard Hunter</t>
+  </si>
+  <si>
+    <t>Alea Ramirez</t>
+  </si>
+  <si>
+    <t>Maggie Johnson</t>
+  </si>
+  <si>
+    <t>Athena Harrington</t>
+  </si>
+  <si>
+    <t>Travis Kinney</t>
+  </si>
+  <si>
+    <t>Yasir Walls</t>
+  </si>
+  <si>
+    <t>Stuart Spencer</t>
+  </si>
+  <si>
+    <t>Ebony Maldonado</t>
+  </si>
+  <si>
+    <t>Whitney Ayala</t>
+  </si>
+  <si>
+    <t>Francis Klein</t>
+  </si>
+  <si>
+    <t>Deanna Guy</t>
+  </si>
+  <si>
+    <t>Arsenio Howe</t>
+  </si>
+  <si>
+    <t>Ishmael Wyatt</t>
+  </si>
+  <si>
+    <t>Britanney Mullen</t>
+  </si>
+  <si>
+    <t>Charles Harris</t>
+  </si>
+  <si>
+    <t>Jasmine Rasmussen</t>
+  </si>
+  <si>
+    <t>Yvette Dawson</t>
+  </si>
+  <si>
+    <t>Mary Garner</t>
+  </si>
+  <si>
+    <t>Melvin Flynn</t>
+  </si>
+  <si>
+    <t>Risa Sykes</t>
+  </si>
+  <si>
+    <t>Whoopi Griffith</t>
+  </si>
+  <si>
+    <t>Darryl Wooten</t>
+  </si>
+  <si>
+    <t>Heidi Hood</t>
+  </si>
+  <si>
+    <t>Yuri Fisher</t>
+  </si>
+  <si>
+    <t>Shaine Montoya</t>
+  </si>
+  <si>
+    <t>Lillian Hopkins</t>
+  </si>
+  <si>
+    <t>Brody Knox</t>
+  </si>
+  <si>
+    <t>Aurora Holman</t>
+  </si>
+  <si>
+    <t>Dora Cummings</t>
+  </si>
+  <si>
+    <t>Damon Crosby</t>
+  </si>
+  <si>
+    <t>Ross Willis</t>
+  </si>
+  <si>
+    <t>Erasmus Lawson</t>
+  </si>
+  <si>
+    <t>Yvonne Nolan</t>
+  </si>
+  <si>
+    <t>Zelenia Fernandez</t>
+  </si>
+  <si>
+    <t>Reece Whitehead</t>
+  </si>
+  <si>
+    <t>Zenia Goodwin</t>
+  </si>
+  <si>
+    <t>Joshua Buckley</t>
+  </si>
+  <si>
+    <t>Shelby Little</t>
+  </si>
+  <si>
+    <t>Nora Tyler</t>
+  </si>
+  <si>
+    <t>Ferdinand Singleton</t>
+  </si>
+  <si>
+    <t>Autumn Langley</t>
+  </si>
+  <si>
+    <t>Alea Weiss</t>
+  </si>
+  <si>
+    <t>Ella Livingston</t>
+  </si>
+  <si>
+    <t>Cleo Small</t>
+  </si>
+  <si>
+    <t>Claire Stout</t>
+  </si>
+  <si>
+    <t>Tatiana Yates</t>
   </si>
 </sst>
 </file>
@@ -479,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6ACE8C-323D-4925-8C4C-1DD22A6AA664}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,292 +767,1452 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>17000031</v>
+        <v>17000151</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>17000032</v>
+        <v>17000152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
+      <c r="H3" s="2">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>17000033</v>
+        <v>17000153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>17000034</v>
+        <v>17000154</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>16</v>
+      <c r="D5" s="2">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>17000035</v>
+        <v>17000155</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
         <v>9</v>
       </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>17</v>
+      <c r="G6" s="2">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>17000036</v>
+        <v>17000156</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>13</v>
+      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>17000037</v>
+        <v>17000157</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8">
+      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
         <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>17000038</v>
+        <v>17000158</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="I9">
-        <v>16</v>
+      <c r="D9" s="2">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>17000039</v>
+        <v>17000159</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="2">
         <v>18</v>
       </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>16</v>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>17000040</v>
+        <v>17000160</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>17000161</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>17000162</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>17000163</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>17000164</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
         <v>18</v>
       </c>
-      <c r="H11">
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>17000165</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>17000166</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
         <v>17</v>
       </c>
-      <c r="I11">
-        <v>15</v>
+      <c r="I17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17000167</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>17000168</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>17000169</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>17000170</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>17000171</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>17000172</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>17000173</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>17000174</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>17000175</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>17000176</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <v>17</v>
+      </c>
+      <c r="H27" s="2">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>17000177</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>17000178</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>17000179</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>17000180</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>17000181</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" s="2">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>17000182</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>17000183</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2">
+        <v>7</v>
+      </c>
+      <c r="I34" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>17000184</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>17000185</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="2">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>17000186</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2">
+        <v>13</v>
+      </c>
+      <c r="H37" s="2">
+        <v>13</v>
+      </c>
+      <c r="I37" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>17000187</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>17000188</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2">
+        <v>16</v>
+      </c>
+      <c r="I39" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>17000189</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2">
+        <v>12</v>
+      </c>
+      <c r="I40" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>17000190</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2">
+        <v>18</v>
+      </c>
+      <c r="H41" s="2">
+        <v>7</v>
+      </c>
+      <c r="I41" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>17000191</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="2">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>17000192</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>17000193</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>17000194</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="2">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2">
+        <v>14</v>
+      </c>
+      <c r="I45" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>17000195</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2">
+        <v>18</v>
+      </c>
+      <c r="I46" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>17000196</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2">
+        <v>8</v>
+      </c>
+      <c r="I47" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>17000197</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2">
+        <v>14</v>
+      </c>
+      <c r="I48" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>17000198</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="2">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2">
+        <v>9</v>
+      </c>
+      <c r="G49" s="2">
+        <v>17</v>
+      </c>
+      <c r="H49" s="2">
+        <v>14</v>
+      </c>
+      <c r="I49" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>17000199</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" s="2">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2">
+        <v>18</v>
+      </c>
+      <c r="I50" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>17000200</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="2">
+        <v>19</v>
+      </c>
+      <c r="E51" s="2">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2">
+        <v>14</v>
+      </c>
+      <c r="H51" s="2">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
